--- a/app/templates/import_resident_templates.xlsx
+++ b/app/templates/import_resident_templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>住户信息表（*为必填），每次最多上传1000条数据！</t>
   </si>
@@ -43,19 +43,19 @@
     <t>身份证号</t>
   </si>
   <si>
-    <t>苑/期/区*</t>
-  </si>
-  <si>
-    <t>幢*</t>
+    <t>区域*</t>
+  </si>
+  <si>
+    <t>楼栋*</t>
   </si>
   <si>
     <t>单元*</t>
   </si>
   <si>
-    <t>室号*</t>
-  </si>
-  <si>
-    <t>身份*</t>
+    <t>房号*</t>
+  </si>
+  <si>
+    <t>住户身份*</t>
   </si>
   <si>
     <t>有效期</t>
@@ -64,7 +64,7 @@
     <t>入住时间</t>
   </si>
   <si>
-    <t>标签</t>
+    <t>住户标签</t>
   </si>
   <si>
     <t>民族</t>
@@ -73,7 +73,7 @@
     <t>政治面貌</t>
   </si>
   <si>
-    <t>婚姻状况</t>
+    <t>婚姻状态</t>
   </si>
   <si>
     <t>户口类型</t>
@@ -88,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -102,37 +102,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +146,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -154,68 +216,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -223,17 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,6 +446,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +490,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -475,35 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,21 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -552,10 +552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,133 +564,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,8 +1054,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1161,21 +1161,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3:I1048576">
       <formula1>"业主,家人,租客"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="J1 C2 I2 J2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N3:N1048576">
-      <formula1>"党员,团员,群众"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O3 O4:O1048576">
-      <formula1>"未婚,已婚,分居,离异,丧偶"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
+      <formula1>"户在人在,户在人不在,常住(已购房，户籍不在),承租,空房,借住,其他,人在户不在"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P3:P1048576">
       <formula1>"农业户口,非农业户口"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1 N3:N1048576">
+      <formula1>"党员,团员,群众"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="J1 C2 I2 J2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1 O3 O4:O1048576">
+      <formula1>"未婚,已婚,分居,离异,丧偶"</formula1>
+    </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
       <formula1>TODAY()</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
-      <formula1>"户在人在,户在人不在,常住(已购房，户籍不在),承租,空房,借住,其他,人在户不在"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
